--- a/format/bku.xlsx
+++ b/format/bku.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\amanbos\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64EDC1A-797C-48C6-9DED-38E78C53004C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C59D7B1-E2F0-45B8-ABAF-EDA1B20F0886}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CF8E27D0-3AFA-4F7E-98B4-1EEDB73FD6C1}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>BUKU KAS UMUM</t>
   </si>
@@ -118,6 +118,21 @@
   </si>
   <si>
     <t>Kepala Sekolah</t>
+  </si>
+  <si>
+    <t>JENIS</t>
+  </si>
+  <si>
+    <t>Jenis BKU:</t>
+  </si>
+  <si>
+    <t>Tunai</t>
+  </si>
+  <si>
+    <t>Transfer</t>
+  </si>
+  <si>
+    <t>Pajak</t>
   </si>
 </sst>
 </file>
@@ -227,7 +242,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -263,11 +278,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -331,18 +355,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -355,6 +367,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,10 +700,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H219"/>
+  <dimension ref="A1:L219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -689,47 +716,47 @@
     <col min="6" max="8" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+    <row r="1" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+    </row>
+    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="33" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -738,28 +765,34 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-    </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="33" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -768,13 +801,16 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="33" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -783,109 +819,116 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:8" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+    <row r="10" spans="1:12" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="37" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-    </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="38"/>
+    </row>
+    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>1</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="33"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-    </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+    </row>
+    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>2</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="33"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-    </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+    </row>
+    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>3</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="13"/>
-      <c r="D14" s="33"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-    </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+    </row>
+    <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>4</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="33"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-    </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+    </row>
+    <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>5</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="13"/>
-      <c r="D16" s="33"/>
+      <c r="D16" s="29"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
@@ -893,11 +936,11 @@
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="33"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
@@ -905,11 +948,11 @@
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="33"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
@@ -917,11 +960,11 @@
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="33"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="12"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
@@ -929,11 +972,11 @@
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="13"/>
-      <c r="D20" s="33"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
@@ -941,11 +984,11 @@
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="33"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
     </row>
     <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
@@ -953,11 +996,11 @@
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="13"/>
-      <c r="D22" s="33"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
@@ -965,11 +1008,11 @@
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="13"/>
-      <c r="D23" s="33"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
     </row>
     <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
@@ -977,11 +1020,11 @@
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="13"/>
-      <c r="D24" s="33"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
     </row>
     <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
@@ -989,11 +1032,11 @@
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="13"/>
-      <c r="D25" s="33"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
     </row>
     <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
@@ -1001,11 +1044,11 @@
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="13"/>
-      <c r="D26" s="33"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
     </row>
     <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
@@ -1013,11 +1056,11 @@
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="13"/>
-      <c r="D27" s="33"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
     </row>
     <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
@@ -1025,11 +1068,11 @@
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="33"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="12"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
@@ -1037,11 +1080,11 @@
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="13"/>
-      <c r="D29" s="33"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
@@ -1049,11 +1092,11 @@
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="13"/>
-      <c r="D30" s="33"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
     </row>
     <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
@@ -1061,11 +1104,11 @@
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="13"/>
-      <c r="D31" s="33"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="12"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
@@ -1073,11 +1116,11 @@
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="33"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
     </row>
     <row r="33" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
@@ -1085,11 +1128,11 @@
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="13"/>
-      <c r="D33" s="33"/>
+      <c r="D33" s="29"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
     </row>
     <row r="34" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
@@ -1097,11 +1140,11 @@
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="13"/>
-      <c r="D34" s="33"/>
+      <c r="D34" s="29"/>
       <c r="E34" s="12"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
     </row>
     <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
@@ -1109,11 +1152,11 @@
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="13"/>
-      <c r="D35" s="33"/>
+      <c r="D35" s="29"/>
       <c r="E35" s="12"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
     </row>
     <row r="36" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
@@ -1121,11 +1164,11 @@
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="13"/>
-      <c r="D36" s="33"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="12"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
@@ -1133,11 +1176,11 @@
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="13"/>
-      <c r="D37" s="33"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="12"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
     </row>
     <row r="38" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
@@ -1145,11 +1188,11 @@
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="13"/>
-      <c r="D38" s="33"/>
+      <c r="D38" s="29"/>
       <c r="E38" s="12"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
     </row>
     <row r="39" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
@@ -1157,11 +1200,11 @@
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="13"/>
-      <c r="D39" s="33"/>
+      <c r="D39" s="29"/>
       <c r="E39" s="12"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
@@ -1169,11 +1212,11 @@
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="13"/>
-      <c r="D40" s="33"/>
+      <c r="D40" s="29"/>
       <c r="E40" s="12"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
@@ -1181,11 +1224,11 @@
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="13"/>
-      <c r="D41" s="33"/>
+      <c r="D41" s="29"/>
       <c r="E41" s="12"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
     </row>
     <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
@@ -1193,11 +1236,11 @@
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="13"/>
-      <c r="D42" s="33"/>
+      <c r="D42" s="29"/>
       <c r="E42" s="12"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
     </row>
     <row r="43" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
@@ -1205,11 +1248,11 @@
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="13"/>
-      <c r="D43" s="33"/>
+      <c r="D43" s="29"/>
       <c r="E43" s="12"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
@@ -1217,11 +1260,11 @@
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="13"/>
-      <c r="D44" s="33"/>
+      <c r="D44" s="29"/>
       <c r="E44" s="12"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
     </row>
     <row r="45" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
@@ -1229,11 +1272,11 @@
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="13"/>
-      <c r="D45" s="33"/>
+      <c r="D45" s="29"/>
       <c r="E45" s="12"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
     </row>
     <row r="46" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
@@ -1241,11 +1284,11 @@
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="13"/>
-      <c r="D46" s="33"/>
+      <c r="D46" s="29"/>
       <c r="E46" s="12"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
@@ -1253,11 +1296,11 @@
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="13"/>
-      <c r="D47" s="33"/>
+      <c r="D47" s="29"/>
       <c r="E47" s="12"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
     </row>
     <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
@@ -1265,11 +1308,11 @@
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="13"/>
-      <c r="D48" s="33"/>
+      <c r="D48" s="29"/>
       <c r="E48" s="12"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
     </row>
     <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
@@ -1277,11 +1320,11 @@
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="13"/>
-      <c r="D49" s="33"/>
+      <c r="D49" s="29"/>
       <c r="E49" s="12"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
     </row>
     <row r="50" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
@@ -1289,11 +1332,11 @@
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="13"/>
-      <c r="D50" s="33"/>
+      <c r="D50" s="29"/>
       <c r="E50" s="12"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
     </row>
     <row r="51" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
@@ -1301,11 +1344,11 @@
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="13"/>
-      <c r="D51" s="33"/>
+      <c r="D51" s="29"/>
       <c r="E51" s="12"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
     </row>
     <row r="52" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
@@ -1313,11 +1356,11 @@
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="13"/>
-      <c r="D52" s="33"/>
+      <c r="D52" s="29"/>
       <c r="E52" s="12"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
     </row>
     <row r="53" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
@@ -1325,11 +1368,11 @@
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="13"/>
-      <c r="D53" s="33"/>
+      <c r="D53" s="29"/>
       <c r="E53" s="12"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
     </row>
     <row r="54" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
@@ -1337,11 +1380,11 @@
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="13"/>
-      <c r="D54" s="33"/>
+      <c r="D54" s="29"/>
       <c r="E54" s="12"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
     </row>
     <row r="55" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10">
@@ -1349,11 +1392,11 @@
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="13"/>
-      <c r="D55" s="33"/>
+      <c r="D55" s="29"/>
       <c r="E55" s="12"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
     </row>
     <row r="56" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
@@ -1361,11 +1404,11 @@
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="13"/>
-      <c r="D56" s="33"/>
+      <c r="D56" s="29"/>
       <c r="E56" s="12"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
     </row>
     <row r="57" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10">
@@ -1373,11 +1416,11 @@
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="13"/>
-      <c r="D57" s="33"/>
+      <c r="D57" s="29"/>
       <c r="E57" s="12"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
     </row>
     <row r="58" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10">
@@ -1385,11 +1428,11 @@
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="13"/>
-      <c r="D58" s="33"/>
+      <c r="D58" s="29"/>
       <c r="E58" s="12"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
     </row>
     <row r="59" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
@@ -1397,11 +1440,11 @@
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="13"/>
-      <c r="D59" s="33"/>
+      <c r="D59" s="29"/>
       <c r="E59" s="12"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
     </row>
     <row r="60" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10">
@@ -1409,11 +1452,11 @@
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="13"/>
-      <c r="D60" s="33"/>
+      <c r="D60" s="29"/>
       <c r="E60" s="12"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
     </row>
     <row r="61" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10">
@@ -1421,11 +1464,11 @@
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="13"/>
-      <c r="D61" s="33"/>
+      <c r="D61" s="29"/>
       <c r="E61" s="12"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
     </row>
     <row r="62" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10">
@@ -1433,11 +1476,11 @@
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="13"/>
-      <c r="D62" s="33"/>
+      <c r="D62" s="29"/>
       <c r="E62" s="12"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
     </row>
     <row r="63" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
@@ -1445,11 +1488,11 @@
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="13"/>
-      <c r="D63" s="33"/>
+      <c r="D63" s="29"/>
       <c r="E63" s="12"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
     </row>
     <row r="64" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10">
@@ -1457,11 +1500,11 @@
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="13"/>
-      <c r="D64" s="33"/>
+      <c r="D64" s="29"/>
       <c r="E64" s="12"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
     </row>
     <row r="65" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10">
@@ -1469,11 +1512,11 @@
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="13"/>
-      <c r="D65" s="33"/>
+      <c r="D65" s="29"/>
       <c r="E65" s="12"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="34"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
     </row>
     <row r="66" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10">
@@ -1481,11 +1524,11 @@
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="13"/>
-      <c r="D66" s="33"/>
+      <c r="D66" s="29"/>
       <c r="E66" s="12"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
     </row>
     <row r="67" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10">
@@ -1493,11 +1536,11 @@
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="13"/>
-      <c r="D67" s="33"/>
+      <c r="D67" s="29"/>
       <c r="E67" s="12"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="34"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
     </row>
     <row r="68" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10">
@@ -1505,11 +1548,11 @@
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="13"/>
-      <c r="D68" s="33"/>
+      <c r="D68" s="29"/>
       <c r="E68" s="12"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="34"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
     </row>
     <row r="69" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10">
@@ -1517,11 +1560,11 @@
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="13"/>
-      <c r="D69" s="33"/>
+      <c r="D69" s="29"/>
       <c r="E69" s="12"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
     </row>
     <row r="70" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10">
@@ -1529,11 +1572,11 @@
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="13"/>
-      <c r="D70" s="33"/>
+      <c r="D70" s="29"/>
       <c r="E70" s="12"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="34"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
     </row>
     <row r="71" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10">
@@ -1541,11 +1584,11 @@
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="13"/>
-      <c r="D71" s="33"/>
+      <c r="D71" s="29"/>
       <c r="E71" s="12"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
     </row>
     <row r="72" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10">
@@ -1553,11 +1596,11 @@
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="13"/>
-      <c r="D72" s="33"/>
+      <c r="D72" s="29"/>
       <c r="E72" s="12"/>
-      <c r="F72" s="34"/>
-      <c r="G72" s="34"/>
-      <c r="H72" s="34"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
     </row>
     <row r="73" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10">
@@ -1565,11 +1608,11 @@
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="13"/>
-      <c r="D73" s="33"/>
+      <c r="D73" s="29"/>
       <c r="E73" s="12"/>
-      <c r="F73" s="34"/>
-      <c r="G73" s="34"/>
-      <c r="H73" s="34"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
     </row>
     <row r="74" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10">
@@ -1577,11 +1620,11 @@
       </c>
       <c r="B74" s="10"/>
       <c r="C74" s="13"/>
-      <c r="D74" s="33"/>
+      <c r="D74" s="29"/>
       <c r="E74" s="12"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="34"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
     </row>
     <row r="75" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10">
@@ -1589,11 +1632,11 @@
       </c>
       <c r="B75" s="10"/>
       <c r="C75" s="13"/>
-      <c r="D75" s="33"/>
+      <c r="D75" s="29"/>
       <c r="E75" s="12"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="34"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
     </row>
     <row r="76" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10">
@@ -1601,11 +1644,11 @@
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="13"/>
-      <c r="D76" s="33"/>
+      <c r="D76" s="29"/>
       <c r="E76" s="12"/>
-      <c r="F76" s="34"/>
-      <c r="G76" s="34"/>
-      <c r="H76" s="34"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
     </row>
     <row r="77" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10">
@@ -1613,11 +1656,11 @@
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="13"/>
-      <c r="D77" s="33"/>
+      <c r="D77" s="29"/>
       <c r="E77" s="12"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="34"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
     </row>
     <row r="78" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10">
@@ -1625,11 +1668,11 @@
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="13"/>
-      <c r="D78" s="33"/>
+      <c r="D78" s="29"/>
       <c r="E78" s="12"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
     </row>
     <row r="79" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10">
@@ -1637,11 +1680,11 @@
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="13"/>
-      <c r="D79" s="33"/>
+      <c r="D79" s="29"/>
       <c r="E79" s="12"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="34"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
     </row>
     <row r="80" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10">
@@ -1649,11 +1692,11 @@
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="13"/>
-      <c r="D80" s="33"/>
+      <c r="D80" s="29"/>
       <c r="E80" s="12"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
     </row>
     <row r="81" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10">
@@ -1661,11 +1704,11 @@
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="13"/>
-      <c r="D81" s="33"/>
+      <c r="D81" s="29"/>
       <c r="E81" s="12"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
     </row>
     <row r="82" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10">
@@ -1673,11 +1716,11 @@
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="13"/>
-      <c r="D82" s="33"/>
+      <c r="D82" s="29"/>
       <c r="E82" s="12"/>
-      <c r="F82" s="34"/>
-      <c r="G82" s="34"/>
-      <c r="H82" s="34"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
     </row>
     <row r="83" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10">
@@ -1685,11 +1728,11 @@
       </c>
       <c r="B83" s="10"/>
       <c r="C83" s="13"/>
-      <c r="D83" s="33"/>
+      <c r="D83" s="29"/>
       <c r="E83" s="12"/>
-      <c r="F83" s="34"/>
-      <c r="G83" s="34"/>
-      <c r="H83" s="34"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
     </row>
     <row r="84" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10">
@@ -1697,11 +1740,11 @@
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="13"/>
-      <c r="D84" s="33"/>
+      <c r="D84" s="29"/>
       <c r="E84" s="12"/>
-      <c r="F84" s="34"/>
-      <c r="G84" s="34"/>
-      <c r="H84" s="34"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
     </row>
     <row r="85" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10">
@@ -1709,11 +1752,11 @@
       </c>
       <c r="B85" s="10"/>
       <c r="C85" s="13"/>
-      <c r="D85" s="33"/>
+      <c r="D85" s="29"/>
       <c r="E85" s="12"/>
-      <c r="F85" s="34"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="34"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
     </row>
     <row r="86" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10">
@@ -1721,11 +1764,11 @@
       </c>
       <c r="B86" s="10"/>
       <c r="C86" s="13"/>
-      <c r="D86" s="33"/>
+      <c r="D86" s="29"/>
       <c r="E86" s="12"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="34"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30"/>
     </row>
     <row r="87" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10">
@@ -1733,11 +1776,11 @@
       </c>
       <c r="B87" s="10"/>
       <c r="C87" s="13"/>
-      <c r="D87" s="33"/>
+      <c r="D87" s="29"/>
       <c r="E87" s="12"/>
-      <c r="F87" s="34"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="34"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="30"/>
     </row>
     <row r="88" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10">
@@ -1745,11 +1788,11 @@
       </c>
       <c r="B88" s="10"/>
       <c r="C88" s="13"/>
-      <c r="D88" s="33"/>
+      <c r="D88" s="29"/>
       <c r="E88" s="12"/>
-      <c r="F88" s="34"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="34"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30"/>
     </row>
     <row r="89" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10">
@@ -1757,11 +1800,11 @@
       </c>
       <c r="B89" s="10"/>
       <c r="C89" s="13"/>
-      <c r="D89" s="33"/>
+      <c r="D89" s="29"/>
       <c r="E89" s="12"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
+      <c r="F89" s="30"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="30"/>
     </row>
     <row r="90" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="10">
@@ -1769,11 +1812,11 @@
       </c>
       <c r="B90" s="10"/>
       <c r="C90" s="13"/>
-      <c r="D90" s="33"/>
+      <c r="D90" s="29"/>
       <c r="E90" s="12"/>
-      <c r="F90" s="34"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="34"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30"/>
     </row>
     <row r="91" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="10">
@@ -1781,11 +1824,11 @@
       </c>
       <c r="B91" s="10"/>
       <c r="C91" s="13"/>
-      <c r="D91" s="33"/>
+      <c r="D91" s="29"/>
       <c r="E91" s="12"/>
-      <c r="F91" s="34"/>
-      <c r="G91" s="34"/>
-      <c r="H91" s="34"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="30"/>
     </row>
     <row r="92" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="10">
@@ -1793,11 +1836,11 @@
       </c>
       <c r="B92" s="10"/>
       <c r="C92" s="13"/>
-      <c r="D92" s="33"/>
+      <c r="D92" s="29"/>
       <c r="E92" s="12"/>
-      <c r="F92" s="34"/>
-      <c r="G92" s="34"/>
-      <c r="H92" s="34"/>
+      <c r="F92" s="30"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30"/>
     </row>
     <row r="93" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="10">
@@ -1805,11 +1848,11 @@
       </c>
       <c r="B93" s="10"/>
       <c r="C93" s="13"/>
-      <c r="D93" s="33"/>
+      <c r="D93" s="29"/>
       <c r="E93" s="12"/>
-      <c r="F93" s="34"/>
-      <c r="G93" s="34"/>
-      <c r="H93" s="34"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="30"/>
     </row>
     <row r="94" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="10">
@@ -1817,11 +1860,11 @@
       </c>
       <c r="B94" s="10"/>
       <c r="C94" s="13"/>
-      <c r="D94" s="33"/>
+      <c r="D94" s="29"/>
       <c r="E94" s="12"/>
-      <c r="F94" s="34"/>
-      <c r="G94" s="34"/>
-      <c r="H94" s="34"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="30"/>
     </row>
     <row r="95" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="10">
@@ -1829,11 +1872,11 @@
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="13"/>
-      <c r="D95" s="33"/>
+      <c r="D95" s="29"/>
       <c r="E95" s="12"/>
-      <c r="F95" s="34"/>
-      <c r="G95" s="34"/>
-      <c r="H95" s="34"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="30"/>
     </row>
     <row r="96" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="10">
@@ -1841,11 +1884,11 @@
       </c>
       <c r="B96" s="10"/>
       <c r="C96" s="13"/>
-      <c r="D96" s="33"/>
+      <c r="D96" s="29"/>
       <c r="E96" s="12"/>
-      <c r="F96" s="34"/>
-      <c r="G96" s="34"/>
-      <c r="H96" s="34"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="30"/>
     </row>
     <row r="97" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="10">
@@ -1853,11 +1896,11 @@
       </c>
       <c r="B97" s="10"/>
       <c r="C97" s="13"/>
-      <c r="D97" s="33"/>
+      <c r="D97" s="29"/>
       <c r="E97" s="12"/>
-      <c r="F97" s="34"/>
-      <c r="G97" s="34"/>
-      <c r="H97" s="34"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="30"/>
     </row>
     <row r="98" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="10">
@@ -1865,11 +1908,11 @@
       </c>
       <c r="B98" s="10"/>
       <c r="C98" s="13"/>
-      <c r="D98" s="33"/>
+      <c r="D98" s="29"/>
       <c r="E98" s="12"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="30"/>
     </row>
     <row r="99" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="10">
@@ -1877,11 +1920,11 @@
       </c>
       <c r="B99" s="10"/>
       <c r="C99" s="13"/>
-      <c r="D99" s="33"/>
+      <c r="D99" s="29"/>
       <c r="E99" s="12"/>
-      <c r="F99" s="34"/>
-      <c r="G99" s="34"/>
-      <c r="H99" s="34"/>
+      <c r="F99" s="30"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="30"/>
     </row>
     <row r="100" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="10">
@@ -1889,11 +1932,11 @@
       </c>
       <c r="B100" s="10"/>
       <c r="C100" s="13"/>
-      <c r="D100" s="33"/>
+      <c r="D100" s="29"/>
       <c r="E100" s="12"/>
-      <c r="F100" s="34"/>
-      <c r="G100" s="34"/>
-      <c r="H100" s="34"/>
+      <c r="F100" s="30"/>
+      <c r="G100" s="30"/>
+      <c r="H100" s="30"/>
     </row>
     <row r="101" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10">
@@ -1901,11 +1944,11 @@
       </c>
       <c r="B101" s="10"/>
       <c r="C101" s="13"/>
-      <c r="D101" s="33"/>
+      <c r="D101" s="29"/>
       <c r="E101" s="12"/>
-      <c r="F101" s="34"/>
-      <c r="G101" s="34"/>
-      <c r="H101" s="34"/>
+      <c r="F101" s="30"/>
+      <c r="G101" s="30"/>
+      <c r="H101" s="30"/>
     </row>
     <row r="102" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="10">
@@ -1913,11 +1956,11 @@
       </c>
       <c r="B102" s="10"/>
       <c r="C102" s="13"/>
-      <c r="D102" s="33"/>
+      <c r="D102" s="29"/>
       <c r="E102" s="12"/>
-      <c r="F102" s="34"/>
-      <c r="G102" s="34"/>
-      <c r="H102" s="34"/>
+      <c r="F102" s="30"/>
+      <c r="G102" s="30"/>
+      <c r="H102" s="30"/>
     </row>
     <row r="103" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="10">
@@ -1925,11 +1968,11 @@
       </c>
       <c r="B103" s="10"/>
       <c r="C103" s="13"/>
-      <c r="D103" s="33"/>
+      <c r="D103" s="29"/>
       <c r="E103" s="12"/>
-      <c r="F103" s="34"/>
-      <c r="G103" s="34"/>
-      <c r="H103" s="34"/>
+      <c r="F103" s="30"/>
+      <c r="G103" s="30"/>
+      <c r="H103" s="30"/>
     </row>
     <row r="104" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="10">
@@ -1937,11 +1980,11 @@
       </c>
       <c r="B104" s="10"/>
       <c r="C104" s="13"/>
-      <c r="D104" s="33"/>
+      <c r="D104" s="29"/>
       <c r="E104" s="12"/>
-      <c r="F104" s="34"/>
-      <c r="G104" s="34"/>
-      <c r="H104" s="34"/>
+      <c r="F104" s="30"/>
+      <c r="G104" s="30"/>
+      <c r="H104" s="30"/>
     </row>
     <row r="105" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10">
@@ -1949,11 +1992,11 @@
       </c>
       <c r="B105" s="10"/>
       <c r="C105" s="13"/>
-      <c r="D105" s="33"/>
+      <c r="D105" s="29"/>
       <c r="E105" s="12"/>
-      <c r="F105" s="34"/>
-      <c r="G105" s="34"/>
-      <c r="H105" s="34"/>
+      <c r="F105" s="30"/>
+      <c r="G105" s="30"/>
+      <c r="H105" s="30"/>
     </row>
     <row r="106" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="10">
@@ -1961,11 +2004,11 @@
       </c>
       <c r="B106" s="10"/>
       <c r="C106" s="13"/>
-      <c r="D106" s="33"/>
+      <c r="D106" s="29"/>
       <c r="E106" s="12"/>
-      <c r="F106" s="34"/>
-      <c r="G106" s="34"/>
-      <c r="H106" s="34"/>
+      <c r="F106" s="30"/>
+      <c r="G106" s="30"/>
+      <c r="H106" s="30"/>
     </row>
     <row r="107" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="10">
@@ -1973,11 +2016,11 @@
       </c>
       <c r="B107" s="10"/>
       <c r="C107" s="13"/>
-      <c r="D107" s="33"/>
+      <c r="D107" s="29"/>
       <c r="E107" s="12"/>
-      <c r="F107" s="34"/>
-      <c r="G107" s="34"/>
-      <c r="H107" s="34"/>
+      <c r="F107" s="30"/>
+      <c r="G107" s="30"/>
+      <c r="H107" s="30"/>
     </row>
     <row r="108" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="10">
@@ -1985,11 +2028,11 @@
       </c>
       <c r="B108" s="10"/>
       <c r="C108" s="13"/>
-      <c r="D108" s="33"/>
+      <c r="D108" s="29"/>
       <c r="E108" s="12"/>
-      <c r="F108" s="34"/>
-      <c r="G108" s="34"/>
-      <c r="H108" s="34"/>
+      <c r="F108" s="30"/>
+      <c r="G108" s="30"/>
+      <c r="H108" s="30"/>
     </row>
     <row r="109" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="10">
@@ -1997,11 +2040,11 @@
       </c>
       <c r="B109" s="10"/>
       <c r="C109" s="13"/>
-      <c r="D109" s="33"/>
+      <c r="D109" s="29"/>
       <c r="E109" s="12"/>
-      <c r="F109" s="34"/>
-      <c r="G109" s="34"/>
-      <c r="H109" s="34"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="30"/>
     </row>
     <row r="110" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="10">
@@ -2009,11 +2052,11 @@
       </c>
       <c r="B110" s="10"/>
       <c r="C110" s="13"/>
-      <c r="D110" s="33"/>
+      <c r="D110" s="29"/>
       <c r="E110" s="12"/>
-      <c r="F110" s="34"/>
-      <c r="G110" s="34"/>
-      <c r="H110" s="34"/>
+      <c r="F110" s="30"/>
+      <c r="G110" s="30"/>
+      <c r="H110" s="30"/>
     </row>
     <row r="111" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="10">
@@ -2021,11 +2064,11 @@
       </c>
       <c r="B111" s="10"/>
       <c r="C111" s="13"/>
-      <c r="D111" s="33"/>
+      <c r="D111" s="29"/>
       <c r="E111" s="12"/>
-      <c r="F111" s="34"/>
-      <c r="G111" s="34"/>
-      <c r="H111" s="34"/>
+      <c r="F111" s="30"/>
+      <c r="G111" s="30"/>
+      <c r="H111" s="30"/>
     </row>
     <row r="112" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10">
@@ -2033,11 +2076,11 @@
       </c>
       <c r="B112" s="10"/>
       <c r="C112" s="13"/>
-      <c r="D112" s="33"/>
+      <c r="D112" s="29"/>
       <c r="E112" s="12"/>
-      <c r="F112" s="34"/>
-      <c r="G112" s="34"/>
-      <c r="H112" s="34"/>
+      <c r="F112" s="30"/>
+      <c r="G112" s="30"/>
+      <c r="H112" s="30"/>
     </row>
     <row r="113" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="10">
@@ -2045,11 +2088,11 @@
       </c>
       <c r="B113" s="10"/>
       <c r="C113" s="13"/>
-      <c r="D113" s="33"/>
+      <c r="D113" s="29"/>
       <c r="E113" s="12"/>
-      <c r="F113" s="34"/>
-      <c r="G113" s="34"/>
-      <c r="H113" s="34"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
     </row>
     <row r="114" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="10">
@@ -2057,11 +2100,11 @@
       </c>
       <c r="B114" s="10"/>
       <c r="C114" s="13"/>
-      <c r="D114" s="33"/>
+      <c r="D114" s="29"/>
       <c r="E114" s="12"/>
-      <c r="F114" s="34"/>
-      <c r="G114" s="34"/>
-      <c r="H114" s="34"/>
+      <c r="F114" s="30"/>
+      <c r="G114" s="30"/>
+      <c r="H114" s="30"/>
     </row>
     <row r="115" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="10">
@@ -2069,11 +2112,11 @@
       </c>
       <c r="B115" s="10"/>
       <c r="C115" s="13"/>
-      <c r="D115" s="33"/>
+      <c r="D115" s="29"/>
       <c r="E115" s="12"/>
-      <c r="F115" s="34"/>
-      <c r="G115" s="34"/>
-      <c r="H115" s="34"/>
+      <c r="F115" s="30"/>
+      <c r="G115" s="30"/>
+      <c r="H115" s="30"/>
     </row>
     <row r="116" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="10">
@@ -2081,11 +2124,11 @@
       </c>
       <c r="B116" s="10"/>
       <c r="C116" s="13"/>
-      <c r="D116" s="33"/>
+      <c r="D116" s="29"/>
       <c r="E116" s="12"/>
-      <c r="F116" s="34"/>
-      <c r="G116" s="34"/>
-      <c r="H116" s="34"/>
+      <c r="F116" s="30"/>
+      <c r="G116" s="30"/>
+      <c r="H116" s="30"/>
     </row>
     <row r="117" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="10">
@@ -2093,11 +2136,11 @@
       </c>
       <c r="B117" s="10"/>
       <c r="C117" s="13"/>
-      <c r="D117" s="33"/>
+      <c r="D117" s="29"/>
       <c r="E117" s="12"/>
-      <c r="F117" s="34"/>
-      <c r="G117" s="34"/>
-      <c r="H117" s="34"/>
+      <c r="F117" s="30"/>
+      <c r="G117" s="30"/>
+      <c r="H117" s="30"/>
     </row>
     <row r="118" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="10">
@@ -2105,11 +2148,11 @@
       </c>
       <c r="B118" s="10"/>
       <c r="C118" s="13"/>
-      <c r="D118" s="33"/>
+      <c r="D118" s="29"/>
       <c r="E118" s="12"/>
-      <c r="F118" s="34"/>
-      <c r="G118" s="34"/>
-      <c r="H118" s="34"/>
+      <c r="F118" s="30"/>
+      <c r="G118" s="30"/>
+      <c r="H118" s="30"/>
     </row>
     <row r="119" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10">
@@ -2117,11 +2160,11 @@
       </c>
       <c r="B119" s="10"/>
       <c r="C119" s="13"/>
-      <c r="D119" s="33"/>
+      <c r="D119" s="29"/>
       <c r="E119" s="12"/>
-      <c r="F119" s="34"/>
-      <c r="G119" s="34"/>
-      <c r="H119" s="34"/>
+      <c r="F119" s="30"/>
+      <c r="G119" s="30"/>
+      <c r="H119" s="30"/>
     </row>
     <row r="120" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="10">
@@ -2129,11 +2172,11 @@
       </c>
       <c r="B120" s="10"/>
       <c r="C120" s="13"/>
-      <c r="D120" s="33"/>
+      <c r="D120" s="29"/>
       <c r="E120" s="12"/>
-      <c r="F120" s="34"/>
-      <c r="G120" s="34"/>
-      <c r="H120" s="34"/>
+      <c r="F120" s="30"/>
+      <c r="G120" s="30"/>
+      <c r="H120" s="30"/>
     </row>
     <row r="121" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="10">
@@ -2141,11 +2184,11 @@
       </c>
       <c r="B121" s="10"/>
       <c r="C121" s="13"/>
-      <c r="D121" s="33"/>
+      <c r="D121" s="29"/>
       <c r="E121" s="12"/>
-      <c r="F121" s="34"/>
-      <c r="G121" s="34"/>
-      <c r="H121" s="34"/>
+      <c r="F121" s="30"/>
+      <c r="G121" s="30"/>
+      <c r="H121" s="30"/>
     </row>
     <row r="122" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="10">
@@ -2153,11 +2196,11 @@
       </c>
       <c r="B122" s="10"/>
       <c r="C122" s="13"/>
-      <c r="D122" s="33"/>
+      <c r="D122" s="29"/>
       <c r="E122" s="12"/>
-      <c r="F122" s="34"/>
-      <c r="G122" s="34"/>
-      <c r="H122" s="34"/>
+      <c r="F122" s="30"/>
+      <c r="G122" s="30"/>
+      <c r="H122" s="30"/>
     </row>
     <row r="123" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10">
@@ -2165,11 +2208,11 @@
       </c>
       <c r="B123" s="10"/>
       <c r="C123" s="13"/>
-      <c r="D123" s="33"/>
+      <c r="D123" s="29"/>
       <c r="E123" s="12"/>
-      <c r="F123" s="34"/>
-      <c r="G123" s="34"/>
-      <c r="H123" s="34"/>
+      <c r="F123" s="30"/>
+      <c r="G123" s="30"/>
+      <c r="H123" s="30"/>
     </row>
     <row r="124" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="10">
@@ -2177,11 +2220,11 @@
       </c>
       <c r="B124" s="10"/>
       <c r="C124" s="13"/>
-      <c r="D124" s="33"/>
+      <c r="D124" s="29"/>
       <c r="E124" s="12"/>
-      <c r="F124" s="34"/>
-      <c r="G124" s="34"/>
-      <c r="H124" s="34"/>
+      <c r="F124" s="30"/>
+      <c r="G124" s="30"/>
+      <c r="H124" s="30"/>
     </row>
     <row r="125" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="10">
@@ -2189,11 +2232,11 @@
       </c>
       <c r="B125" s="10"/>
       <c r="C125" s="13"/>
-      <c r="D125" s="33"/>
+      <c r="D125" s="29"/>
       <c r="E125" s="12"/>
-      <c r="F125" s="34"/>
-      <c r="G125" s="34"/>
-      <c r="H125" s="34"/>
+      <c r="F125" s="30"/>
+      <c r="G125" s="30"/>
+      <c r="H125" s="30"/>
     </row>
     <row r="126" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="10">
@@ -2201,11 +2244,11 @@
       </c>
       <c r="B126" s="10"/>
       <c r="C126" s="13"/>
-      <c r="D126" s="33"/>
+      <c r="D126" s="29"/>
       <c r="E126" s="12"/>
-      <c r="F126" s="34"/>
-      <c r="G126" s="34"/>
-      <c r="H126" s="34"/>
+      <c r="F126" s="30"/>
+      <c r="G126" s="30"/>
+      <c r="H126" s="30"/>
     </row>
     <row r="127" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="10">
@@ -2213,11 +2256,11 @@
       </c>
       <c r="B127" s="10"/>
       <c r="C127" s="13"/>
-      <c r="D127" s="33"/>
+      <c r="D127" s="29"/>
       <c r="E127" s="12"/>
-      <c r="F127" s="34"/>
-      <c r="G127" s="34"/>
-      <c r="H127" s="34"/>
+      <c r="F127" s="30"/>
+      <c r="G127" s="30"/>
+      <c r="H127" s="30"/>
     </row>
     <row r="128" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="10">
@@ -2225,11 +2268,11 @@
       </c>
       <c r="B128" s="10"/>
       <c r="C128" s="13"/>
-      <c r="D128" s="33"/>
+      <c r="D128" s="29"/>
       <c r="E128" s="12"/>
-      <c r="F128" s="34"/>
-      <c r="G128" s="34"/>
-      <c r="H128" s="34"/>
+      <c r="F128" s="30"/>
+      <c r="G128" s="30"/>
+      <c r="H128" s="30"/>
     </row>
     <row r="129" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="10">
@@ -2237,11 +2280,11 @@
       </c>
       <c r="B129" s="10"/>
       <c r="C129" s="13"/>
-      <c r="D129" s="33"/>
+      <c r="D129" s="29"/>
       <c r="E129" s="12"/>
-      <c r="F129" s="34"/>
-      <c r="G129" s="34"/>
-      <c r="H129" s="34"/>
+      <c r="F129" s="30"/>
+      <c r="G129" s="30"/>
+      <c r="H129" s="30"/>
     </row>
     <row r="130" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="10">
@@ -2249,11 +2292,11 @@
       </c>
       <c r="B130" s="10"/>
       <c r="C130" s="13"/>
-      <c r="D130" s="33"/>
+      <c r="D130" s="29"/>
       <c r="E130" s="12"/>
-      <c r="F130" s="34"/>
-      <c r="G130" s="34"/>
-      <c r="H130" s="34"/>
+      <c r="F130" s="30"/>
+      <c r="G130" s="30"/>
+      <c r="H130" s="30"/>
     </row>
     <row r="131" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="10">
@@ -2261,11 +2304,11 @@
       </c>
       <c r="B131" s="10"/>
       <c r="C131" s="13"/>
-      <c r="D131" s="33"/>
+      <c r="D131" s="29"/>
       <c r="E131" s="12"/>
-      <c r="F131" s="34"/>
-      <c r="G131" s="34"/>
-      <c r="H131" s="34"/>
+      <c r="F131" s="30"/>
+      <c r="G131" s="30"/>
+      <c r="H131" s="30"/>
     </row>
     <row r="132" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="10">
@@ -2273,11 +2316,11 @@
       </c>
       <c r="B132" s="10"/>
       <c r="C132" s="13"/>
-      <c r="D132" s="33"/>
+      <c r="D132" s="29"/>
       <c r="E132" s="12"/>
-      <c r="F132" s="34"/>
-      <c r="G132" s="34"/>
-      <c r="H132" s="34"/>
+      <c r="F132" s="30"/>
+      <c r="G132" s="30"/>
+      <c r="H132" s="30"/>
     </row>
     <row r="133" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="10">
@@ -2285,11 +2328,11 @@
       </c>
       <c r="B133" s="10"/>
       <c r="C133" s="13"/>
-      <c r="D133" s="33"/>
+      <c r="D133" s="29"/>
       <c r="E133" s="12"/>
-      <c r="F133" s="34"/>
-      <c r="G133" s="34"/>
-      <c r="H133" s="34"/>
+      <c r="F133" s="30"/>
+      <c r="G133" s="30"/>
+      <c r="H133" s="30"/>
     </row>
     <row r="134" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="10">
@@ -2297,11 +2340,11 @@
       </c>
       <c r="B134" s="10"/>
       <c r="C134" s="13"/>
-      <c r="D134" s="33"/>
+      <c r="D134" s="29"/>
       <c r="E134" s="12"/>
-      <c r="F134" s="34"/>
-      <c r="G134" s="34"/>
-      <c r="H134" s="34"/>
+      <c r="F134" s="30"/>
+      <c r="G134" s="30"/>
+      <c r="H134" s="30"/>
     </row>
     <row r="135" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="10">
@@ -2309,11 +2352,11 @@
       </c>
       <c r="B135" s="10"/>
       <c r="C135" s="13"/>
-      <c r="D135" s="33"/>
+      <c r="D135" s="29"/>
       <c r="E135" s="12"/>
-      <c r="F135" s="34"/>
-      <c r="G135" s="34"/>
-      <c r="H135" s="34"/>
+      <c r="F135" s="30"/>
+      <c r="G135" s="30"/>
+      <c r="H135" s="30"/>
     </row>
     <row r="136" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="10">
@@ -2321,11 +2364,11 @@
       </c>
       <c r="B136" s="10"/>
       <c r="C136" s="13"/>
-      <c r="D136" s="33"/>
+      <c r="D136" s="29"/>
       <c r="E136" s="12"/>
-      <c r="F136" s="34"/>
-      <c r="G136" s="34"/>
-      <c r="H136" s="34"/>
+      <c r="F136" s="30"/>
+      <c r="G136" s="30"/>
+      <c r="H136" s="30"/>
     </row>
     <row r="137" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10">
@@ -2333,11 +2376,11 @@
       </c>
       <c r="B137" s="10"/>
       <c r="C137" s="13"/>
-      <c r="D137" s="33"/>
+      <c r="D137" s="29"/>
       <c r="E137" s="12"/>
-      <c r="F137" s="34"/>
-      <c r="G137" s="34"/>
-      <c r="H137" s="34"/>
+      <c r="F137" s="30"/>
+      <c r="G137" s="30"/>
+      <c r="H137" s="30"/>
     </row>
     <row r="138" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="10">
@@ -2345,11 +2388,11 @@
       </c>
       <c r="B138" s="10"/>
       <c r="C138" s="13"/>
-      <c r="D138" s="33"/>
+      <c r="D138" s="29"/>
       <c r="E138" s="12"/>
-      <c r="F138" s="34"/>
-      <c r="G138" s="34"/>
-      <c r="H138" s="34"/>
+      <c r="F138" s="30"/>
+      <c r="G138" s="30"/>
+      <c r="H138" s="30"/>
     </row>
     <row r="139" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="10">
@@ -2357,11 +2400,11 @@
       </c>
       <c r="B139" s="10"/>
       <c r="C139" s="13"/>
-      <c r="D139" s="33"/>
+      <c r="D139" s="29"/>
       <c r="E139" s="12"/>
-      <c r="F139" s="34"/>
-      <c r="G139" s="34"/>
-      <c r="H139" s="34"/>
+      <c r="F139" s="30"/>
+      <c r="G139" s="30"/>
+      <c r="H139" s="30"/>
     </row>
     <row r="140" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="10">
@@ -2369,11 +2412,11 @@
       </c>
       <c r="B140" s="10"/>
       <c r="C140" s="13"/>
-      <c r="D140" s="33"/>
+      <c r="D140" s="29"/>
       <c r="E140" s="12"/>
-      <c r="F140" s="34"/>
-      <c r="G140" s="34"/>
-      <c r="H140" s="34"/>
+      <c r="F140" s="30"/>
+      <c r="G140" s="30"/>
+      <c r="H140" s="30"/>
     </row>
     <row r="141" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="10">
@@ -2381,11 +2424,11 @@
       </c>
       <c r="B141" s="10"/>
       <c r="C141" s="13"/>
-      <c r="D141" s="33"/>
+      <c r="D141" s="29"/>
       <c r="E141" s="12"/>
-      <c r="F141" s="34"/>
-      <c r="G141" s="34"/>
-      <c r="H141" s="34"/>
+      <c r="F141" s="30"/>
+      <c r="G141" s="30"/>
+      <c r="H141" s="30"/>
     </row>
     <row r="142" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="10">
@@ -2393,11 +2436,11 @@
       </c>
       <c r="B142" s="10"/>
       <c r="C142" s="13"/>
-      <c r="D142" s="33"/>
+      <c r="D142" s="29"/>
       <c r="E142" s="12"/>
-      <c r="F142" s="34"/>
-      <c r="G142" s="34"/>
-      <c r="H142" s="34"/>
+      <c r="F142" s="30"/>
+      <c r="G142" s="30"/>
+      <c r="H142" s="30"/>
     </row>
     <row r="143" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="10">
@@ -2405,11 +2448,11 @@
       </c>
       <c r="B143" s="10"/>
       <c r="C143" s="13"/>
-      <c r="D143" s="33"/>
+      <c r="D143" s="29"/>
       <c r="E143" s="12"/>
-      <c r="F143" s="34"/>
-      <c r="G143" s="34"/>
-      <c r="H143" s="34"/>
+      <c r="F143" s="30"/>
+      <c r="G143" s="30"/>
+      <c r="H143" s="30"/>
     </row>
     <row r="144" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="10">
@@ -2417,11 +2460,11 @@
       </c>
       <c r="B144" s="10"/>
       <c r="C144" s="13"/>
-      <c r="D144" s="33"/>
+      <c r="D144" s="29"/>
       <c r="E144" s="12"/>
-      <c r="F144" s="34"/>
-      <c r="G144" s="34"/>
-      <c r="H144" s="34"/>
+      <c r="F144" s="30"/>
+      <c r="G144" s="30"/>
+      <c r="H144" s="30"/>
     </row>
     <row r="145" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="10">
@@ -2429,11 +2472,11 @@
       </c>
       <c r="B145" s="10"/>
       <c r="C145" s="13"/>
-      <c r="D145" s="33"/>
+      <c r="D145" s="29"/>
       <c r="E145" s="12"/>
-      <c r="F145" s="34"/>
-      <c r="G145" s="34"/>
-      <c r="H145" s="34"/>
+      <c r="F145" s="30"/>
+      <c r="G145" s="30"/>
+      <c r="H145" s="30"/>
     </row>
     <row r="146" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="10">
@@ -2441,11 +2484,11 @@
       </c>
       <c r="B146" s="10"/>
       <c r="C146" s="13"/>
-      <c r="D146" s="33"/>
+      <c r="D146" s="29"/>
       <c r="E146" s="12"/>
-      <c r="F146" s="34"/>
-      <c r="G146" s="34"/>
-      <c r="H146" s="34"/>
+      <c r="F146" s="30"/>
+      <c r="G146" s="30"/>
+      <c r="H146" s="30"/>
     </row>
     <row r="147" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="10">
@@ -2453,11 +2496,11 @@
       </c>
       <c r="B147" s="10"/>
       <c r="C147" s="13"/>
-      <c r="D147" s="33"/>
+      <c r="D147" s="29"/>
       <c r="E147" s="12"/>
-      <c r="F147" s="34"/>
-      <c r="G147" s="34"/>
-      <c r="H147" s="34"/>
+      <c r="F147" s="30"/>
+      <c r="G147" s="30"/>
+      <c r="H147" s="30"/>
     </row>
     <row r="148" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="10">
@@ -2465,11 +2508,11 @@
       </c>
       <c r="B148" s="10"/>
       <c r="C148" s="13"/>
-      <c r="D148" s="33"/>
+      <c r="D148" s="29"/>
       <c r="E148" s="12"/>
-      <c r="F148" s="34"/>
-      <c r="G148" s="34"/>
-      <c r="H148" s="34"/>
+      <c r="F148" s="30"/>
+      <c r="G148" s="30"/>
+      <c r="H148" s="30"/>
     </row>
     <row r="149" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="10">
@@ -2477,11 +2520,11 @@
       </c>
       <c r="B149" s="10"/>
       <c r="C149" s="13"/>
-      <c r="D149" s="33"/>
+      <c r="D149" s="29"/>
       <c r="E149" s="12"/>
-      <c r="F149" s="34"/>
-      <c r="G149" s="34"/>
-      <c r="H149" s="34"/>
+      <c r="F149" s="30"/>
+      <c r="G149" s="30"/>
+      <c r="H149" s="30"/>
     </row>
     <row r="150" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="10">
@@ -2489,11 +2532,11 @@
       </c>
       <c r="B150" s="10"/>
       <c r="C150" s="13"/>
-      <c r="D150" s="33"/>
+      <c r="D150" s="29"/>
       <c r="E150" s="12"/>
-      <c r="F150" s="34"/>
-      <c r="G150" s="34"/>
-      <c r="H150" s="34"/>
+      <c r="F150" s="30"/>
+      <c r="G150" s="30"/>
+      <c r="H150" s="30"/>
     </row>
     <row r="151" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="10">
@@ -2501,11 +2544,11 @@
       </c>
       <c r="B151" s="10"/>
       <c r="C151" s="13"/>
-      <c r="D151" s="33"/>
+      <c r="D151" s="29"/>
       <c r="E151" s="12"/>
-      <c r="F151" s="34"/>
-      <c r="G151" s="34"/>
-      <c r="H151" s="34"/>
+      <c r="F151" s="30"/>
+      <c r="G151" s="30"/>
+      <c r="H151" s="30"/>
     </row>
     <row r="152" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="10">
@@ -2513,11 +2556,11 @@
       </c>
       <c r="B152" s="10"/>
       <c r="C152" s="13"/>
-      <c r="D152" s="33"/>
+      <c r="D152" s="29"/>
       <c r="E152" s="12"/>
-      <c r="F152" s="34"/>
-      <c r="G152" s="34"/>
-      <c r="H152" s="34"/>
+      <c r="F152" s="30"/>
+      <c r="G152" s="30"/>
+      <c r="H152" s="30"/>
     </row>
     <row r="153" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="10">
@@ -2525,11 +2568,11 @@
       </c>
       <c r="B153" s="10"/>
       <c r="C153" s="13"/>
-      <c r="D153" s="33"/>
+      <c r="D153" s="29"/>
       <c r="E153" s="12"/>
-      <c r="F153" s="34"/>
-      <c r="G153" s="34"/>
-      <c r="H153" s="34"/>
+      <c r="F153" s="30"/>
+      <c r="G153" s="30"/>
+      <c r="H153" s="30"/>
     </row>
     <row r="154" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="10">
@@ -2537,11 +2580,11 @@
       </c>
       <c r="B154" s="10"/>
       <c r="C154" s="13"/>
-      <c r="D154" s="33"/>
+      <c r="D154" s="29"/>
       <c r="E154" s="12"/>
-      <c r="F154" s="34"/>
-      <c r="G154" s="34"/>
-      <c r="H154" s="34"/>
+      <c r="F154" s="30"/>
+      <c r="G154" s="30"/>
+      <c r="H154" s="30"/>
     </row>
     <row r="155" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="10">
@@ -2549,11 +2592,11 @@
       </c>
       <c r="B155" s="10"/>
       <c r="C155" s="13"/>
-      <c r="D155" s="33"/>
+      <c r="D155" s="29"/>
       <c r="E155" s="12"/>
-      <c r="F155" s="34"/>
-      <c r="G155" s="34"/>
-      <c r="H155" s="34"/>
+      <c r="F155" s="30"/>
+      <c r="G155" s="30"/>
+      <c r="H155" s="30"/>
     </row>
     <row r="156" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="10">
@@ -2561,11 +2604,11 @@
       </c>
       <c r="B156" s="10"/>
       <c r="C156" s="13"/>
-      <c r="D156" s="33"/>
+      <c r="D156" s="29"/>
       <c r="E156" s="12"/>
-      <c r="F156" s="34"/>
-      <c r="G156" s="34"/>
-      <c r="H156" s="34"/>
+      <c r="F156" s="30"/>
+      <c r="G156" s="30"/>
+      <c r="H156" s="30"/>
     </row>
     <row r="157" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="10">
@@ -2573,11 +2616,11 @@
       </c>
       <c r="B157" s="10"/>
       <c r="C157" s="13"/>
-      <c r="D157" s="33"/>
+      <c r="D157" s="29"/>
       <c r="E157" s="12"/>
-      <c r="F157" s="34"/>
-      <c r="G157" s="34"/>
-      <c r="H157" s="34"/>
+      <c r="F157" s="30"/>
+      <c r="G157" s="30"/>
+      <c r="H157" s="30"/>
     </row>
     <row r="158" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="10">
@@ -2585,11 +2628,11 @@
       </c>
       <c r="B158" s="10"/>
       <c r="C158" s="13"/>
-      <c r="D158" s="33"/>
+      <c r="D158" s="29"/>
       <c r="E158" s="12"/>
-      <c r="F158" s="34"/>
-      <c r="G158" s="34"/>
-      <c r="H158" s="34"/>
+      <c r="F158" s="30"/>
+      <c r="G158" s="30"/>
+      <c r="H158" s="30"/>
     </row>
     <row r="159" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="10">
@@ -2597,11 +2640,11 @@
       </c>
       <c r="B159" s="10"/>
       <c r="C159" s="13"/>
-      <c r="D159" s="33"/>
+      <c r="D159" s="29"/>
       <c r="E159" s="12"/>
-      <c r="F159" s="34"/>
-      <c r="G159" s="34"/>
-      <c r="H159" s="34"/>
+      <c r="F159" s="30"/>
+      <c r="G159" s="30"/>
+      <c r="H159" s="30"/>
     </row>
     <row r="160" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="10">
@@ -2609,11 +2652,11 @@
       </c>
       <c r="B160" s="10"/>
       <c r="C160" s="13"/>
-      <c r="D160" s="33"/>
+      <c r="D160" s="29"/>
       <c r="E160" s="12"/>
-      <c r="F160" s="34"/>
-      <c r="G160" s="34"/>
-      <c r="H160" s="34"/>
+      <c r="F160" s="30"/>
+      <c r="G160" s="30"/>
+      <c r="H160" s="30"/>
     </row>
     <row r="161" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="10">
@@ -2621,11 +2664,11 @@
       </c>
       <c r="B161" s="10"/>
       <c r="C161" s="13"/>
-      <c r="D161" s="33"/>
+      <c r="D161" s="29"/>
       <c r="E161" s="12"/>
-      <c r="F161" s="34"/>
-      <c r="G161" s="34"/>
-      <c r="H161" s="34"/>
+      <c r="F161" s="30"/>
+      <c r="G161" s="30"/>
+      <c r="H161" s="30"/>
     </row>
     <row r="162" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="10">
@@ -2633,11 +2676,11 @@
       </c>
       <c r="B162" s="10"/>
       <c r="C162" s="13"/>
-      <c r="D162" s="33"/>
+      <c r="D162" s="29"/>
       <c r="E162" s="12"/>
-      <c r="F162" s="34"/>
-      <c r="G162" s="34"/>
-      <c r="H162" s="34"/>
+      <c r="F162" s="30"/>
+      <c r="G162" s="30"/>
+      <c r="H162" s="30"/>
     </row>
     <row r="163" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="10">
@@ -2645,11 +2688,11 @@
       </c>
       <c r="B163" s="10"/>
       <c r="C163" s="13"/>
-      <c r="D163" s="33"/>
+      <c r="D163" s="29"/>
       <c r="E163" s="12"/>
-      <c r="F163" s="34"/>
-      <c r="G163" s="34"/>
-      <c r="H163" s="34"/>
+      <c r="F163" s="30"/>
+      <c r="G163" s="30"/>
+      <c r="H163" s="30"/>
     </row>
     <row r="164" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="10">
@@ -2657,11 +2700,11 @@
       </c>
       <c r="B164" s="10"/>
       <c r="C164" s="13"/>
-      <c r="D164" s="33"/>
+      <c r="D164" s="29"/>
       <c r="E164" s="12"/>
-      <c r="F164" s="34"/>
-      <c r="G164" s="34"/>
-      <c r="H164" s="34"/>
+      <c r="F164" s="30"/>
+      <c r="G164" s="30"/>
+      <c r="H164" s="30"/>
     </row>
     <row r="165" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="10">
@@ -2669,11 +2712,11 @@
       </c>
       <c r="B165" s="10"/>
       <c r="C165" s="13"/>
-      <c r="D165" s="33"/>
+      <c r="D165" s="29"/>
       <c r="E165" s="12"/>
-      <c r="F165" s="34"/>
-      <c r="G165" s="34"/>
-      <c r="H165" s="34"/>
+      <c r="F165" s="30"/>
+      <c r="G165" s="30"/>
+      <c r="H165" s="30"/>
     </row>
     <row r="166" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="10">
@@ -2681,11 +2724,11 @@
       </c>
       <c r="B166" s="10"/>
       <c r="C166" s="13"/>
-      <c r="D166" s="33"/>
+      <c r="D166" s="29"/>
       <c r="E166" s="12"/>
-      <c r="F166" s="34"/>
-      <c r="G166" s="34"/>
-      <c r="H166" s="34"/>
+      <c r="F166" s="30"/>
+      <c r="G166" s="30"/>
+      <c r="H166" s="30"/>
     </row>
     <row r="167" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="10">
@@ -2693,11 +2736,11 @@
       </c>
       <c r="B167" s="10"/>
       <c r="C167" s="13"/>
-      <c r="D167" s="33"/>
+      <c r="D167" s="29"/>
       <c r="E167" s="12"/>
-      <c r="F167" s="34"/>
-      <c r="G167" s="34"/>
-      <c r="H167" s="34"/>
+      <c r="F167" s="30"/>
+      <c r="G167" s="30"/>
+      <c r="H167" s="30"/>
     </row>
     <row r="168" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="10">
@@ -2705,11 +2748,11 @@
       </c>
       <c r="B168" s="10"/>
       <c r="C168" s="13"/>
-      <c r="D168" s="33"/>
+      <c r="D168" s="29"/>
       <c r="E168" s="12"/>
-      <c r="F168" s="34"/>
-      <c r="G168" s="34"/>
-      <c r="H168" s="34"/>
+      <c r="F168" s="30"/>
+      <c r="G168" s="30"/>
+      <c r="H168" s="30"/>
     </row>
     <row r="169" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="10">
@@ -2717,11 +2760,11 @@
       </c>
       <c r="B169" s="10"/>
       <c r="C169" s="13"/>
-      <c r="D169" s="33"/>
+      <c r="D169" s="29"/>
       <c r="E169" s="12"/>
-      <c r="F169" s="34"/>
-      <c r="G169" s="34"/>
-      <c r="H169" s="34"/>
+      <c r="F169" s="30"/>
+      <c r="G169" s="30"/>
+      <c r="H169" s="30"/>
     </row>
     <row r="170" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="10">
@@ -2729,11 +2772,11 @@
       </c>
       <c r="B170" s="10"/>
       <c r="C170" s="13"/>
-      <c r="D170" s="33"/>
+      <c r="D170" s="29"/>
       <c r="E170" s="12"/>
-      <c r="F170" s="34"/>
-      <c r="G170" s="34"/>
-      <c r="H170" s="34"/>
+      <c r="F170" s="30"/>
+      <c r="G170" s="30"/>
+      <c r="H170" s="30"/>
     </row>
     <row r="171" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="10">
@@ -2741,11 +2784,11 @@
       </c>
       <c r="B171" s="10"/>
       <c r="C171" s="13"/>
-      <c r="D171" s="33"/>
+      <c r="D171" s="29"/>
       <c r="E171" s="12"/>
-      <c r="F171" s="34"/>
-      <c r="G171" s="34"/>
-      <c r="H171" s="34"/>
+      <c r="F171" s="30"/>
+      <c r="G171" s="30"/>
+      <c r="H171" s="30"/>
     </row>
     <row r="172" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="10">
@@ -2753,11 +2796,11 @@
       </c>
       <c r="B172" s="10"/>
       <c r="C172" s="13"/>
-      <c r="D172" s="33"/>
+      <c r="D172" s="29"/>
       <c r="E172" s="12"/>
-      <c r="F172" s="34"/>
-      <c r="G172" s="34"/>
-      <c r="H172" s="34"/>
+      <c r="F172" s="30"/>
+      <c r="G172" s="30"/>
+      <c r="H172" s="30"/>
     </row>
     <row r="173" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="10">
@@ -2765,11 +2808,11 @@
       </c>
       <c r="B173" s="10"/>
       <c r="C173" s="13"/>
-      <c r="D173" s="33"/>
+      <c r="D173" s="29"/>
       <c r="E173" s="12"/>
-      <c r="F173" s="34"/>
-      <c r="G173" s="34"/>
-      <c r="H173" s="34"/>
+      <c r="F173" s="30"/>
+      <c r="G173" s="30"/>
+      <c r="H173" s="30"/>
     </row>
     <row r="174" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="10">
@@ -2777,11 +2820,11 @@
       </c>
       <c r="B174" s="10"/>
       <c r="C174" s="13"/>
-      <c r="D174" s="33"/>
+      <c r="D174" s="29"/>
       <c r="E174" s="12"/>
-      <c r="F174" s="34"/>
-      <c r="G174" s="34"/>
-      <c r="H174" s="34"/>
+      <c r="F174" s="30"/>
+      <c r="G174" s="30"/>
+      <c r="H174" s="30"/>
     </row>
     <row r="175" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="10">
@@ -2789,11 +2832,11 @@
       </c>
       <c r="B175" s="10"/>
       <c r="C175" s="13"/>
-      <c r="D175" s="33"/>
+      <c r="D175" s="29"/>
       <c r="E175" s="12"/>
-      <c r="F175" s="34"/>
-      <c r="G175" s="34"/>
-      <c r="H175" s="34"/>
+      <c r="F175" s="30"/>
+      <c r="G175" s="30"/>
+      <c r="H175" s="30"/>
     </row>
     <row r="176" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="10">
@@ -2801,11 +2844,11 @@
       </c>
       <c r="B176" s="10"/>
       <c r="C176" s="13"/>
-      <c r="D176" s="33"/>
+      <c r="D176" s="29"/>
       <c r="E176" s="12"/>
-      <c r="F176" s="34"/>
-      <c r="G176" s="34"/>
-      <c r="H176" s="34"/>
+      <c r="F176" s="30"/>
+      <c r="G176" s="30"/>
+      <c r="H176" s="30"/>
     </row>
     <row r="177" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="10">
@@ -2813,11 +2856,11 @@
       </c>
       <c r="B177" s="10"/>
       <c r="C177" s="13"/>
-      <c r="D177" s="33"/>
+      <c r="D177" s="29"/>
       <c r="E177" s="12"/>
-      <c r="F177" s="34"/>
-      <c r="G177" s="34"/>
-      <c r="H177" s="34"/>
+      <c r="F177" s="30"/>
+      <c r="G177" s="30"/>
+      <c r="H177" s="30"/>
     </row>
     <row r="178" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="10">
@@ -2825,11 +2868,11 @@
       </c>
       <c r="B178" s="10"/>
       <c r="C178" s="13"/>
-      <c r="D178" s="33"/>
+      <c r="D178" s="29"/>
       <c r="E178" s="12"/>
-      <c r="F178" s="34"/>
-      <c r="G178" s="34"/>
-      <c r="H178" s="34"/>
+      <c r="F178" s="30"/>
+      <c r="G178" s="30"/>
+      <c r="H178" s="30"/>
     </row>
     <row r="179" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="10">
@@ -2837,11 +2880,11 @@
       </c>
       <c r="B179" s="10"/>
       <c r="C179" s="13"/>
-      <c r="D179" s="33"/>
+      <c r="D179" s="29"/>
       <c r="E179" s="12"/>
-      <c r="F179" s="34"/>
-      <c r="G179" s="34"/>
-      <c r="H179" s="34"/>
+      <c r="F179" s="30"/>
+      <c r="G179" s="30"/>
+      <c r="H179" s="30"/>
     </row>
     <row r="180" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="10">
@@ -2849,11 +2892,11 @@
       </c>
       <c r="B180" s="10"/>
       <c r="C180" s="13"/>
-      <c r="D180" s="33"/>
+      <c r="D180" s="29"/>
       <c r="E180" s="12"/>
-      <c r="F180" s="34"/>
-      <c r="G180" s="34"/>
-      <c r="H180" s="34"/>
+      <c r="F180" s="30"/>
+      <c r="G180" s="30"/>
+      <c r="H180" s="30"/>
     </row>
     <row r="181" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="10">
@@ -2861,11 +2904,11 @@
       </c>
       <c r="B181" s="10"/>
       <c r="C181" s="13"/>
-      <c r="D181" s="33"/>
+      <c r="D181" s="29"/>
       <c r="E181" s="12"/>
-      <c r="F181" s="34"/>
-      <c r="G181" s="34"/>
-      <c r="H181" s="34"/>
+      <c r="F181" s="30"/>
+      <c r="G181" s="30"/>
+      <c r="H181" s="30"/>
     </row>
     <row r="182" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="10">
@@ -2873,11 +2916,11 @@
       </c>
       <c r="B182" s="10"/>
       <c r="C182" s="13"/>
-      <c r="D182" s="33"/>
+      <c r="D182" s="29"/>
       <c r="E182" s="12"/>
-      <c r="F182" s="34"/>
-      <c r="G182" s="34"/>
-      <c r="H182" s="34"/>
+      <c r="F182" s="30"/>
+      <c r="G182" s="30"/>
+      <c r="H182" s="30"/>
     </row>
     <row r="183" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="10">
@@ -2885,11 +2928,11 @@
       </c>
       <c r="B183" s="10"/>
       <c r="C183" s="13"/>
-      <c r="D183" s="33"/>
+      <c r="D183" s="29"/>
       <c r="E183" s="12"/>
-      <c r="F183" s="34"/>
-      <c r="G183" s="34"/>
-      <c r="H183" s="34"/>
+      <c r="F183" s="30"/>
+      <c r="G183" s="30"/>
+      <c r="H183" s="30"/>
     </row>
     <row r="184" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="10">
@@ -2897,11 +2940,11 @@
       </c>
       <c r="B184" s="10"/>
       <c r="C184" s="13"/>
-      <c r="D184" s="33"/>
+      <c r="D184" s="29"/>
       <c r="E184" s="12"/>
-      <c r="F184" s="34"/>
-      <c r="G184" s="34"/>
-      <c r="H184" s="34"/>
+      <c r="F184" s="30"/>
+      <c r="G184" s="30"/>
+      <c r="H184" s="30"/>
     </row>
     <row r="185" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="10">
@@ -2909,11 +2952,11 @@
       </c>
       <c r="B185" s="10"/>
       <c r="C185" s="13"/>
-      <c r="D185" s="33"/>
+      <c r="D185" s="29"/>
       <c r="E185" s="12"/>
-      <c r="F185" s="34"/>
-      <c r="G185" s="34"/>
-      <c r="H185" s="34"/>
+      <c r="F185" s="30"/>
+      <c r="G185" s="30"/>
+      <c r="H185" s="30"/>
     </row>
     <row r="186" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="10">
@@ -2921,11 +2964,11 @@
       </c>
       <c r="B186" s="10"/>
       <c r="C186" s="13"/>
-      <c r="D186" s="33"/>
+      <c r="D186" s="29"/>
       <c r="E186" s="12"/>
-      <c r="F186" s="34"/>
-      <c r="G186" s="34"/>
-      <c r="H186" s="34"/>
+      <c r="F186" s="30"/>
+      <c r="G186" s="30"/>
+      <c r="H186" s="30"/>
     </row>
     <row r="187" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="10">
@@ -2933,11 +2976,11 @@
       </c>
       <c r="B187" s="10"/>
       <c r="C187" s="13"/>
-      <c r="D187" s="33"/>
+      <c r="D187" s="29"/>
       <c r="E187" s="12"/>
-      <c r="F187" s="34"/>
-      <c r="G187" s="34"/>
-      <c r="H187" s="34"/>
+      <c r="F187" s="30"/>
+      <c r="G187" s="30"/>
+      <c r="H187" s="30"/>
     </row>
     <row r="188" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="10">
@@ -2945,11 +2988,11 @@
       </c>
       <c r="B188" s="10"/>
       <c r="C188" s="13"/>
-      <c r="D188" s="33"/>
+      <c r="D188" s="29"/>
       <c r="E188" s="12"/>
-      <c r="F188" s="34"/>
-      <c r="G188" s="34"/>
-      <c r="H188" s="34"/>
+      <c r="F188" s="30"/>
+      <c r="G188" s="30"/>
+      <c r="H188" s="30"/>
     </row>
     <row r="189" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="10">
@@ -2957,11 +3000,11 @@
       </c>
       <c r="B189" s="10"/>
       <c r="C189" s="13"/>
-      <c r="D189" s="33"/>
+      <c r="D189" s="29"/>
       <c r="E189" s="12"/>
-      <c r="F189" s="34"/>
-      <c r="G189" s="34"/>
-      <c r="H189" s="34"/>
+      <c r="F189" s="30"/>
+      <c r="G189" s="30"/>
+      <c r="H189" s="30"/>
     </row>
     <row r="190" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="10">
@@ -2969,11 +3012,11 @@
       </c>
       <c r="B190" s="10"/>
       <c r="C190" s="13"/>
-      <c r="D190" s="33"/>
+      <c r="D190" s="29"/>
       <c r="E190" s="12"/>
-      <c r="F190" s="34"/>
-      <c r="G190" s="34"/>
-      <c r="H190" s="34"/>
+      <c r="F190" s="30"/>
+      <c r="G190" s="30"/>
+      <c r="H190" s="30"/>
     </row>
     <row r="191" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="10">
@@ -2981,11 +3024,11 @@
       </c>
       <c r="B191" s="10"/>
       <c r="C191" s="13"/>
-      <c r="D191" s="33"/>
+      <c r="D191" s="29"/>
       <c r="E191" s="12"/>
-      <c r="F191" s="34"/>
-      <c r="G191" s="34"/>
-      <c r="H191" s="34"/>
+      <c r="F191" s="30"/>
+      <c r="G191" s="30"/>
+      <c r="H191" s="30"/>
     </row>
     <row r="192" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="10">
@@ -2993,11 +3036,11 @@
       </c>
       <c r="B192" s="10"/>
       <c r="C192" s="13"/>
-      <c r="D192" s="33"/>
+      <c r="D192" s="29"/>
       <c r="E192" s="12"/>
-      <c r="F192" s="34"/>
-      <c r="G192" s="34"/>
-      <c r="H192" s="34"/>
+      <c r="F192" s="30"/>
+      <c r="G192" s="30"/>
+      <c r="H192" s="30"/>
     </row>
     <row r="193" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="10">
@@ -3005,11 +3048,11 @@
       </c>
       <c r="B193" s="10"/>
       <c r="C193" s="13"/>
-      <c r="D193" s="33"/>
+      <c r="D193" s="29"/>
       <c r="E193" s="12"/>
-      <c r="F193" s="34"/>
-      <c r="G193" s="34"/>
-      <c r="H193" s="34"/>
+      <c r="F193" s="30"/>
+      <c r="G193" s="30"/>
+      <c r="H193" s="30"/>
     </row>
     <row r="194" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="10">
@@ -3017,11 +3060,11 @@
       </c>
       <c r="B194" s="10"/>
       <c r="C194" s="13"/>
-      <c r="D194" s="33"/>
+      <c r="D194" s="29"/>
       <c r="E194" s="12"/>
-      <c r="F194" s="34"/>
-      <c r="G194" s="34"/>
-      <c r="H194" s="34"/>
+      <c r="F194" s="30"/>
+      <c r="G194" s="30"/>
+      <c r="H194" s="30"/>
     </row>
     <row r="195" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="10">
@@ -3029,11 +3072,11 @@
       </c>
       <c r="B195" s="10"/>
       <c r="C195" s="13"/>
-      <c r="D195" s="33"/>
+      <c r="D195" s="29"/>
       <c r="E195" s="12"/>
-      <c r="F195" s="34"/>
-      <c r="G195" s="34"/>
-      <c r="H195" s="34"/>
+      <c r="F195" s="30"/>
+      <c r="G195" s="30"/>
+      <c r="H195" s="30"/>
     </row>
     <row r="196" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="10">
@@ -3041,11 +3084,11 @@
       </c>
       <c r="B196" s="10"/>
       <c r="C196" s="13"/>
-      <c r="D196" s="33"/>
+      <c r="D196" s="29"/>
       <c r="E196" s="12"/>
-      <c r="F196" s="34"/>
-      <c r="G196" s="34"/>
-      <c r="H196" s="34"/>
+      <c r="F196" s="30"/>
+      <c r="G196" s="30"/>
+      <c r="H196" s="30"/>
     </row>
     <row r="197" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="10">
@@ -3053,11 +3096,11 @@
       </c>
       <c r="B197" s="10"/>
       <c r="C197" s="13"/>
-      <c r="D197" s="33"/>
+      <c r="D197" s="29"/>
       <c r="E197" s="12"/>
-      <c r="F197" s="34"/>
-      <c r="G197" s="34"/>
-      <c r="H197" s="34"/>
+      <c r="F197" s="30"/>
+      <c r="G197" s="30"/>
+      <c r="H197" s="30"/>
     </row>
     <row r="198" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="10">
@@ -3065,11 +3108,11 @@
       </c>
       <c r="B198" s="10"/>
       <c r="C198" s="13"/>
-      <c r="D198" s="33"/>
+      <c r="D198" s="29"/>
       <c r="E198" s="12"/>
-      <c r="F198" s="34"/>
-      <c r="G198" s="34"/>
-      <c r="H198" s="34"/>
+      <c r="F198" s="30"/>
+      <c r="G198" s="30"/>
+      <c r="H198" s="30"/>
     </row>
     <row r="199" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="10">
@@ -3077,11 +3120,11 @@
       </c>
       <c r="B199" s="10"/>
       <c r="C199" s="13"/>
-      <c r="D199" s="33"/>
+      <c r="D199" s="29"/>
       <c r="E199" s="12"/>
-      <c r="F199" s="34"/>
-      <c r="G199" s="34"/>
-      <c r="H199" s="34"/>
+      <c r="F199" s="30"/>
+      <c r="G199" s="30"/>
+      <c r="H199" s="30"/>
     </row>
     <row r="200" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="10">
@@ -3089,11 +3132,11 @@
       </c>
       <c r="B200" s="10"/>
       <c r="C200" s="13"/>
-      <c r="D200" s="33"/>
+      <c r="D200" s="29"/>
       <c r="E200" s="12"/>
-      <c r="F200" s="34"/>
-      <c r="G200" s="34"/>
-      <c r="H200" s="34"/>
+      <c r="F200" s="30"/>
+      <c r="G200" s="30"/>
+      <c r="H200" s="30"/>
     </row>
     <row r="201" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="10">
@@ -3101,11 +3144,11 @@
       </c>
       <c r="B201" s="10"/>
       <c r="C201" s="13"/>
-      <c r="D201" s="33"/>
+      <c r="D201" s="29"/>
       <c r="E201" s="12"/>
-      <c r="F201" s="34"/>
-      <c r="G201" s="34"/>
-      <c r="H201" s="34"/>
+      <c r="F201" s="30"/>
+      <c r="G201" s="30"/>
+      <c r="H201" s="30"/>
     </row>
     <row r="202" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="10">
@@ -3113,11 +3156,11 @@
       </c>
       <c r="B202" s="10"/>
       <c r="C202" s="13"/>
-      <c r="D202" s="33"/>
+      <c r="D202" s="29"/>
       <c r="E202" s="12"/>
-      <c r="F202" s="34"/>
-      <c r="G202" s="34"/>
-      <c r="H202" s="34"/>
+      <c r="F202" s="30"/>
+      <c r="G202" s="30"/>
+      <c r="H202" s="30"/>
     </row>
     <row r="203" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="10">
@@ -3125,11 +3168,11 @@
       </c>
       <c r="B203" s="10"/>
       <c r="C203" s="13"/>
-      <c r="D203" s="33"/>
+      <c r="D203" s="29"/>
       <c r="E203" s="12"/>
-      <c r="F203" s="34"/>
-      <c r="G203" s="34"/>
-      <c r="H203" s="34"/>
+      <c r="F203" s="30"/>
+      <c r="G203" s="30"/>
+      <c r="H203" s="30"/>
     </row>
     <row r="204" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="10">
@@ -3137,11 +3180,11 @@
       </c>
       <c r="B204" s="10"/>
       <c r="C204" s="13"/>
-      <c r="D204" s="33"/>
+      <c r="D204" s="29"/>
       <c r="E204" s="12"/>
-      <c r="F204" s="34"/>
-      <c r="G204" s="34"/>
-      <c r="H204" s="34"/>
+      <c r="F204" s="30"/>
+      <c r="G204" s="30"/>
+      <c r="H204" s="30"/>
     </row>
     <row r="205" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="10">
@@ -3149,11 +3192,11 @@
       </c>
       <c r="B205" s="10"/>
       <c r="C205" s="13"/>
-      <c r="D205" s="33"/>
+      <c r="D205" s="29"/>
       <c r="E205" s="12"/>
-      <c r="F205" s="34"/>
-      <c r="G205" s="34"/>
-      <c r="H205" s="34"/>
+      <c r="F205" s="30"/>
+      <c r="G205" s="30"/>
+      <c r="H205" s="30"/>
     </row>
     <row r="206" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="10">
@@ -3161,11 +3204,11 @@
       </c>
       <c r="B206" s="10"/>
       <c r="C206" s="13"/>
-      <c r="D206" s="33"/>
+      <c r="D206" s="29"/>
       <c r="E206" s="12"/>
-      <c r="F206" s="34"/>
-      <c r="G206" s="34"/>
-      <c r="H206" s="34"/>
+      <c r="F206" s="30"/>
+      <c r="G206" s="30"/>
+      <c r="H206" s="30"/>
     </row>
     <row r="207" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="10">
@@ -3173,11 +3216,11 @@
       </c>
       <c r="B207" s="10"/>
       <c r="C207" s="13"/>
-      <c r="D207" s="33"/>
+      <c r="D207" s="29"/>
       <c r="E207" s="12"/>
-      <c r="F207" s="34"/>
-      <c r="G207" s="34"/>
-      <c r="H207" s="34"/>
+      <c r="F207" s="30"/>
+      <c r="G207" s="30"/>
+      <c r="H207" s="30"/>
     </row>
     <row r="208" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="10">
@@ -3185,11 +3228,11 @@
       </c>
       <c r="B208" s="10"/>
       <c r="C208" s="13"/>
-      <c r="D208" s="33"/>
+      <c r="D208" s="29"/>
       <c r="E208" s="12"/>
-      <c r="F208" s="34"/>
-      <c r="G208" s="34"/>
-      <c r="H208" s="34"/>
+      <c r="F208" s="30"/>
+      <c r="G208" s="30"/>
+      <c r="H208" s="30"/>
     </row>
     <row r="209" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="10">
@@ -3197,11 +3240,11 @@
       </c>
       <c r="B209" s="10"/>
       <c r="C209" s="13"/>
-      <c r="D209" s="33"/>
+      <c r="D209" s="29"/>
       <c r="E209" s="12"/>
-      <c r="F209" s="34"/>
-      <c r="G209" s="34"/>
-      <c r="H209" s="34"/>
+      <c r="F209" s="30"/>
+      <c r="G209" s="30"/>
+      <c r="H209" s="30"/>
     </row>
     <row r="210" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="10">
@@ -3209,11 +3252,11 @@
       </c>
       <c r="B210" s="10"/>
       <c r="C210" s="13"/>
-      <c r="D210" s="33"/>
+      <c r="D210" s="29"/>
       <c r="E210" s="12"/>
-      <c r="F210" s="34"/>
-      <c r="G210" s="34"/>
-      <c r="H210" s="34"/>
+      <c r="F210" s="30"/>
+      <c r="G210" s="30"/>
+      <c r="H210" s="30"/>
     </row>
     <row r="211" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="10">
@@ -3221,11 +3264,11 @@
       </c>
       <c r="B211" s="10"/>
       <c r="C211" s="13"/>
-      <c r="D211" s="33"/>
+      <c r="D211" s="29"/>
       <c r="E211" s="12"/>
-      <c r="F211" s="34"/>
-      <c r="G211" s="34"/>
-      <c r="H211" s="34"/>
+      <c r="F211" s="30"/>
+      <c r="G211" s="30"/>
+      <c r="H211" s="30"/>
     </row>
     <row r="212" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="14"/>
@@ -3292,7 +3335,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="I10:I11"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:H4"/>
@@ -3305,6 +3349,11 @@
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="H10:H11"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12:I211" xr:uid="{0C2B6568-1FF9-4034-8F27-2DF38C1D0779}">
+      <formula1>$L$6:$L$8</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
